--- a/GrayImgCrypt/reportFile/lena512/數值報告.xlsx
+++ b/GrayImgCrypt/reportFile/lena512/數值報告.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\edu_project\GrayImgCrypt\reportFile\lena512\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{91A66DB1-B84C-4A67-AAE0-D8DC5D8B7A48}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55B730D3-09D4-43CC-85BB-2279C0DB5311}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="0" windowWidth="27870" windowHeight="13240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="0" windowWidth="27870" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CCA" sheetId="1" r:id="rId1"/>
@@ -332,16 +332,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.8999999999999999E-4</c:v>
+                  <c:v>4.0900000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7300000000000005E-4</c:v>
+                  <c:v>1.8140000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4099999999999995E-4</c:v>
+                  <c:v>1.3799999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7200000000000001E-4</c:v>
+                  <c:v>4.8700000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,16 +431,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.6730000000000002E-3</c:v>
+                  <c:v>8.8990000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8800000000000003E-4</c:v>
+                  <c:v>2.3869999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2369999999999998E-3</c:v>
+                  <c:v>1.5100000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2989999999999998E-3</c:v>
+                  <c:v>2.3879999999999999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,16 +530,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.4810000000000001E-3</c:v>
+                  <c:v>4.2700000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7859999999999998E-3</c:v>
+                  <c:v>3.5199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.02E-4</c:v>
+                  <c:v>2.4599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.173E-3</c:v>
+                  <c:v>1.83E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +551,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -885,16 +884,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.9993169999999996</c:v>
+                  <c:v>7.9993309999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.999409</c:v>
+                  <c:v>7.9993930000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.9994189999999996</c:v>
+                  <c:v>7.9994389999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9993790000000002</c:v>
+                  <c:v>7.9993319999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2866,21 +2865,21 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.8999999999999999E-4</v>
+        <v>4.0900000000000002E-4</v>
       </c>
       <c r="C3">
-        <v>8.6730000000000002E-3</v>
+        <v>8.8990000000000007E-3</v>
       </c>
       <c r="D3">
-        <v>2.4810000000000001E-3</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="E3">
         <f>SUM(表格3[[#This Row],[CCA_HOR]:[CCA_DIA]])</f>
-        <v>1.1544E-2</v>
+        <v>9.7350000000000006E-3</v>
       </c>
       <c r="F3">
         <f>AVERAGE(表格3[[#This Row],[CCA_HOR]:[SUM]])</f>
-        <v>5.7720000000000002E-3</v>
+        <v>4.8675000000000003E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -2888,21 +2887,21 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.7300000000000005E-4</v>
+        <v>1.8140000000000001E-3</v>
       </c>
       <c r="C4">
-        <v>6.8800000000000003E-4</v>
+        <v>2.3869999999999998E-3</v>
       </c>
       <c r="D4">
-        <v>2.7859999999999998E-3</v>
+        <v>3.5199999999999999E-4</v>
       </c>
       <c r="E4">
         <f>SUM(表格3[[#This Row],[CCA_HOR]:[CCA_DIA]])</f>
-        <v>4.0470000000000002E-3</v>
+        <v>4.5529999999999998E-3</v>
       </c>
       <c r="F4">
         <f>AVERAGE(表格3[[#This Row],[CCA_HOR]:[SUM]])</f>
-        <v>2.0235000000000001E-3</v>
+        <v>2.2764999999999999E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -2910,21 +2909,21 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.4099999999999995E-4</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="C5">
-        <v>2.2369999999999998E-3</v>
+        <v>1.5100000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>2.02E-4</v>
+        <v>2.4599999999999999E-3</v>
       </c>
       <c r="E5">
         <f>SUM(表格3[[#This Row],[CCA_HOR]:[CCA_DIA]])</f>
-        <v>3.2799999999999999E-3</v>
+        <v>2.7489999999999997E-3</v>
       </c>
       <c r="F5">
         <f>AVERAGE(表格3[[#This Row],[CCA_HOR]:[SUM]])</f>
-        <v>1.64E-3</v>
+        <v>1.3744999999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -2932,21 +2931,21 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.7200000000000001E-4</v>
+        <v>4.8700000000000002E-4</v>
       </c>
       <c r="C6">
-        <v>2.2989999999999998E-3</v>
+        <v>2.3879999999999999E-3</v>
       </c>
       <c r="D6">
-        <v>2.173E-3</v>
+        <v>1.83E-3</v>
       </c>
       <c r="E6">
         <f>SUM(表格3[[#This Row],[CCA_HOR]:[CCA_DIA]])</f>
-        <v>4.6439999999999997E-3</v>
+        <v>4.705E-3</v>
       </c>
       <c r="F6">
         <f>AVERAGE(表格3[[#This Row],[CCA_HOR]:[SUM]])</f>
-        <v>2.3219999999999998E-3</v>
+        <v>2.3525E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -2987,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3014,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.9993169999999996</v>
+        <v>7.9993309999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -3022,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7.999409</v>
+        <v>7.9993930000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -3030,7 +3029,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.9994189999999996</v>
+        <v>7.9994389999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -3038,7 +3037,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.9993790000000002</v>
+        <v>7.9993319999999999</v>
       </c>
     </row>
   </sheetData>
